--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2483,12 +2483,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2540,21 +2540,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2563,18 +2548,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2588,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2626,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2665,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2735,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2843,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2915,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,157 +3003,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3223,7 +3223,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3250,52 +3250,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6288,9 +6288,9 @@
   <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="782">
   <si>
     <t>target</t>
   </si>
@@ -2477,6 +2477,9 @@
     <t>user should be navigated to GNU Dashboard</t>
   </si>
   <si>
+    <t>${title.locator}</t>
+  </si>
+  <si>
     <t>${title.header}</t>
   </si>
 </sst>
@@ -2485,10 +2488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3017,16 +3020,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3159,11 +3162,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3215,6 +3219,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3233,6 +3253,22 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3617,7 +3653,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6288,2965 +6324,2967 @@
   <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="11" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A2" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A6" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
-      <c r="A11" s="11" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
+      <c r="A11" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A16" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>5000</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="F24" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="32"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="29"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="29"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="29"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="29"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="29"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="29"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="29"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="29"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="29"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="29"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="29"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="29"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="29"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="29"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="29"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="29"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="29"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="29"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="29"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="29"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="29"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="29"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="29"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="29"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="29"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="29"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="29"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="29"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="29"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="29"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="29"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="29"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="29"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="29"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="29"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="29"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="29"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="29"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="29"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="29"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="29"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="29"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="29"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="29"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="29"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="29"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="11"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="29"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="29"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="29"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="29"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="29"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="29"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="29"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="29"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="29"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="29"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="29"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="29"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="29"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="29"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="29"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="29"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="29"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="29"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="29"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="29"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="29"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="29"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="29"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="29"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="29"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="11"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="29"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="29"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="11"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="29"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="11"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="29"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="11"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="29"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="29"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="29"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="29"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="29"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="29"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="29"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="29"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="11"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="29"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="29"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="11"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="29"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="11"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="29"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="11"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="29"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="11"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="29"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="11"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="29"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="11"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="29"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="11"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="29"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="11"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="29"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="11"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="29"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="29"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="11"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="29"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="11"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="28"/>
+      <c r="L181" s="29"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="11"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="29"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="11"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="29"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="11"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="29"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="29"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="29"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="29"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="29"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="29"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="29"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="29"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="29"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="782">
   <si>
     <t>target</t>
   </si>
@@ -2456,7 +2456,7 @@
     <t>${input.username}</t>
   </si>
   <si>
-    <t>${username}</t>
+    <t>${login.username}</t>
   </si>
   <si>
     <t xml:space="preserve">    And I type the Password</t>
@@ -2465,7 +2465,7 @@
     <t>${input.password}</t>
   </si>
   <si>
-    <t>${password}</t>
+    <t>${login.password}</t>
   </si>
   <si>
     <t xml:space="preserve">    And I click on the submit button</t>
@@ -2475,6 +2475,9 @@
   </si>
   <si>
     <t>user should be navigated to GNU Dashboard</t>
+  </si>
+  <si>
+    <t>${title.locator}</t>
   </si>
   <si>
     <t>${title.header}</t>
@@ -2485,10 +2488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3017,16 +3020,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3159,11 +3162,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3215,6 +3219,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3233,6 +3253,22 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3617,7 +3653,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6287,2966 +6323,2968 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="11" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A2" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A6" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
-      <c r="A11" s="11" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
+      <c r="A11" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A16" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>5000</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="28"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="28"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="F24" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="32"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="29"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="29"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="29"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="29"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="29"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="29"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="29"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="29"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="29"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="29"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="29"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="29"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="29"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="29"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="29"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="29"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="29"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="29"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="29"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="29"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="29"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="29"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="29"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="29"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="29"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="29"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="29"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="28"/>
+      <c r="L111" s="29"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="29"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="28"/>
+      <c r="L113" s="29"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="29"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="29"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="29"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="29"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="29"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="28"/>
+      <c r="L119" s="29"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="29"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="29"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="28"/>
+      <c r="L122" s="29"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="28"/>
+      <c r="L123" s="29"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="29"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="28"/>
+      <c r="L125" s="29"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="28"/>
+      <c r="L126" s="29"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="29"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="28"/>
+      <c r="L128" s="29"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="29"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="29"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="11"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="28"/>
+      <c r="L131" s="29"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="28"/>
+      <c r="L132" s="29"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="29"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="28"/>
+      <c r="L134" s="29"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="28"/>
+      <c r="L135" s="29"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="29"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="28"/>
+      <c r="L137" s="29"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="29"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="29"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="28"/>
+      <c r="L140" s="29"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="28"/>
+      <c r="L141" s="29"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="29"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="29"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="29"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="29"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="29"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="29"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="29"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="28"/>
+      <c r="L149" s="29"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="28"/>
+      <c r="L150" s="29"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="29"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="29"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="28"/>
+      <c r="L153" s="29"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="29"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="28"/>
+      <c r="L155" s="29"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="11"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="28"/>
+      <c r="L156" s="29"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="28"/>
+      <c r="L157" s="29"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="11"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="28"/>
+      <c r="L158" s="29"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="11"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="28"/>
+      <c r="L159" s="29"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="11"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="28"/>
+      <c r="L160" s="29"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="28"/>
+      <c r="L161" s="29"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="29"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="29"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="28"/>
+      <c r="L164" s="29"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="28"/>
+      <c r="L165" s="29"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="29"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="29"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="11"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="28"/>
+      <c r="L168" s="29"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="28"/>
+      <c r="L169" s="29"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="11"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="28"/>
+      <c r="L170" s="29"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="11"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="28"/>
+      <c r="L171" s="29"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="11"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="28"/>
+      <c r="L172" s="29"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="11"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="28"/>
+      <c r="L173" s="29"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="11"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="28"/>
+      <c r="L174" s="29"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="11"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="28"/>
+      <c r="L175" s="29"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="11"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="28"/>
+      <c r="L176" s="29"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="11"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="28"/>
+      <c r="L177" s="29"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="11"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="28"/>
+      <c r="L178" s="29"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="28"/>
+      <c r="L179" s="29"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="11"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="28"/>
+      <c r="L180" s="29"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="11"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="28"/>
+      <c r="L181" s="29"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="11"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="29"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="11"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="28"/>
+      <c r="L183" s="29"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="11"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="28"/>
+      <c r="L184" s="29"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="29"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="29"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="28"/>
+      <c r="L187" s="29"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="29"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="28"/>
+      <c r="L189" s="29"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="29"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="29"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="29"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -56,7 +56,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2486,7 +2499,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -3162,12 +3175,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3219,22 +3231,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -3253,22 +3249,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6324,2967 +6304,2967 @@
   <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36" style="7" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
-    <col min="12" max="12" width="12" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36" style="6" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12" style="9" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="21" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:12">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>738</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="28"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="28"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="23"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>5000</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="28"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="28"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="28"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="23"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="28"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="28"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="23"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="28"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="32"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="23"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="29"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="29"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="29"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="29"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="29"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="29"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="29"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="29"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="24"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="29"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="29"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="29"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="24"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="29"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="24"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="29"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="29"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="29"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="29"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="24"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="29"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="24"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="29"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="29"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="24"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="29"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="24"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="29"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="24"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="29"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="24"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="29"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="24"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="29"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="24"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="29"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="24"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="29"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="24"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="29"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="29"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="24"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="29"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="24"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="29"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="24"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="29"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="24"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="29"/>
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="24"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="29"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="24"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="29"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="29"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="24"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="24"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="24"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="24"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="29"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="24"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="29"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="24"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="29"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="24"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="29"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="24"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="29"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="24"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="24"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="29"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="24"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="29"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="24"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="29"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="24"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="29"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="24"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="29"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="24"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="29"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="24"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="29"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="24"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="29"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="24"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="29"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="24"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="29"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="24"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="29"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="24"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="29"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="24"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="29"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="24"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="29"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="24"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="29"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="24"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="29"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="24"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="29"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="24"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="29"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="24"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="29"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="24"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="29"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="24"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="12"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="29"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="24"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="12"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="29"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="24"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="29"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="24"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="12"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="29"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="24"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="29"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="24"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="12"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="29"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="24"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="29"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="24"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="12"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="29"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="24"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="12"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="29"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="24"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="29"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="24"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="29"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="24"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="12"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="29"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="24"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="12"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="29"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="24"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="12"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="29"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="24"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="12"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="29"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="24"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="12"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="29"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="24"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="12"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="29"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="24"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="12"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="29"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="24"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="12"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="29"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="24"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="12"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="29"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="24"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="12"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="29"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="24"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="12"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="29"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="24"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="12"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="29"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="24"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="12"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="29"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="24"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="12"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="29"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="24"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="12"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="29"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="24"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="12"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="29"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="24"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="12"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="29"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="24"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="12"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="29"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="24"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="12"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="29"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="24"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="12"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c r="K134" s="28"/>
-      <c r="L134" s="29"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="24"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="12"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c r="K135" s="28"/>
-      <c r="L135" s="29"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="24"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="12"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c r="K136" s="28"/>
-      <c r="L136" s="29"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="24"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="12"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c r="K137" s="28"/>
-      <c r="L137" s="29"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="24"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="12"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c r="K138" s="28"/>
-      <c r="L138" s="29"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="23"/>
+      <c r="L138" s="24"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="12"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="29"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="23"/>
+      <c r="L139" s="24"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="12"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c r="K140" s="28"/>
-      <c r="L140" s="29"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="23"/>
+      <c r="L140" s="24"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="12"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="29"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="24"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="12"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="16"/>
-      <c r="K142" s="28"/>
-      <c r="L142" s="29"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="23"/>
+      <c r="L142" s="24"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="12"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="29"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="23"/>
+      <c r="L143" s="24"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="12"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="16"/>
-      <c r="K144" s="28"/>
-      <c r="L144" s="29"/>
+      <c r="A144" s="11"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="23"/>
+      <c r="L144" s="24"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="12"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="14"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="29"/>
+      <c r="A145" s="11"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="23"/>
+      <c r="L145" s="24"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="12"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="16"/>
-      <c r="K146" s="28"/>
-      <c r="L146" s="29"/>
+      <c r="A146" s="11"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="23"/>
+      <c r="L146" s="24"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="12"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="16"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="29"/>
+      <c r="A147" s="11"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="23"/>
+      <c r="L147" s="24"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="12"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="29"/>
+      <c r="A148" s="11"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="23"/>
+      <c r="L148" s="24"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="12"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="29"/>
+      <c r="A149" s="11"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="24"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="12"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="16"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="29"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="24"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="12"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="14"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="28"/>
-      <c r="L151" s="29"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="23"/>
+      <c r="L151" s="24"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="12"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="16"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="29"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="23"/>
+      <c r="L152" s="24"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="12"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="14"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="16"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="29"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="23"/>
+      <c r="L153" s="24"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="12"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="16"/>
-      <c r="K154" s="28"/>
-      <c r="L154" s="29"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="24"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="12"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="16"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="29"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="23"/>
+      <c r="L155" s="24"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="12"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="16"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="29"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="23"/>
+      <c r="L156" s="24"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="12"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="16"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="29"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="24"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="12"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="16"/>
-      <c r="K158" s="28"/>
-      <c r="L158" s="29"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="23"/>
+      <c r="L158" s="24"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="12"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="16"/>
-      <c r="K159" s="28"/>
-      <c r="L159" s="29"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+      <c r="H159" s="14"/>
+      <c r="I159" s="14"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="23"/>
+      <c r="L159" s="24"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="12"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="16"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="29"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="24"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="12"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="14"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="16"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="29"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="23"/>
+      <c r="L161" s="24"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="12"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="16"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="29"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="24"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="12"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="16"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="29"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="23"/>
+      <c r="L163" s="24"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="12"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="16"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="29"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="23"/>
+      <c r="L164" s="24"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="12"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="14"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="16"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="29"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="24"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="12"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="16"/>
-      <c r="K166" s="28"/>
-      <c r="L166" s="29"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="23"/>
+      <c r="L166" s="24"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="12"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="14"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="16"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="29"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="23"/>
+      <c r="L167" s="24"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="12"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="16"/>
-      <c r="K168" s="28"/>
-      <c r="L168" s="29"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="23"/>
+      <c r="L168" s="24"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="12"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="16"/>
-      <c r="K169" s="28"/>
-      <c r="L169" s="29"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="23"/>
+      <c r="L169" s="24"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="12"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="16"/>
-      <c r="K170" s="28"/>
-      <c r="L170" s="29"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+      <c r="H170" s="14"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="23"/>
+      <c r="L170" s="24"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="12"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="14"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="16"/>
-      <c r="K171" s="28"/>
-      <c r="L171" s="29"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+      <c r="H171" s="14"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="23"/>
+      <c r="L171" s="24"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="12"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="16"/>
-      <c r="K172" s="28"/>
-      <c r="L172" s="29"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="23"/>
+      <c r="L172" s="24"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="12"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
-      <c r="J173" s="16"/>
-      <c r="K173" s="28"/>
-      <c r="L173" s="29"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="23"/>
+      <c r="L173" s="24"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="12"/>
-      <c r="B174" s="13"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
-      <c r="J174" s="16"/>
-      <c r="K174" s="28"/>
-      <c r="L174" s="29"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+      <c r="H174" s="14"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="23"/>
+      <c r="L174" s="24"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="12"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="16"/>
-      <c r="K175" s="28"/>
-      <c r="L175" s="29"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+      <c r="H175" s="14"/>
+      <c r="I175" s="14"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="23"/>
+      <c r="L175" s="24"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="12"/>
-      <c r="B176" s="13"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="16"/>
-      <c r="K176" s="28"/>
-      <c r="L176" s="29"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="23"/>
+      <c r="L176" s="24"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="12"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="14"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="16"/>
-      <c r="K177" s="28"/>
-      <c r="L177" s="29"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="23"/>
+      <c r="L177" s="24"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="12"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="16"/>
-      <c r="K178" s="28"/>
-      <c r="L178" s="29"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="23"/>
+      <c r="L178" s="24"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="12"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="14"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="16"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="29"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="23"/>
+      <c r="L179" s="24"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="12"/>
-      <c r="B180" s="13"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="16"/>
-      <c r="K180" s="28"/>
-      <c r="L180" s="29"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="23"/>
+      <c r="L180" s="24"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="12"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="16"/>
-      <c r="K181" s="28"/>
-      <c r="L181" s="29"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="24"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="12"/>
-      <c r="B182" s="13"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="16"/>
-      <c r="K182" s="28"/>
-      <c r="L182" s="29"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="23"/>
+      <c r="L182" s="24"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="12"/>
-      <c r="B183" s="13"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="16"/>
-      <c r="K183" s="28"/>
-      <c r="L183" s="29"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="23"/>
+      <c r="L183" s="24"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="12"/>
-      <c r="B184" s="13"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="16"/>
-      <c r="K184" s="28"/>
-      <c r="L184" s="29"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="24"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="12"/>
-      <c r="B185" s="13"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="16"/>
-      <c r="K185" s="28"/>
-      <c r="L185" s="29"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="23"/>
+      <c r="L185" s="24"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="12"/>
-      <c r="B186" s="13"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="16"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="29"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="23"/>
+      <c r="L186" s="24"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="12"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
-      <c r="J187" s="16"/>
-      <c r="K187" s="28"/>
-      <c r="L187" s="29"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="23"/>
+      <c r="L187" s="24"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="12"/>
-      <c r="B188" s="13"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
-      <c r="J188" s="16"/>
-      <c r="K188" s="28"/>
-      <c r="L188" s="29"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="23"/>
+      <c r="L188" s="24"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="12"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
-      <c r="J189" s="16"/>
-      <c r="K189" s="28"/>
-      <c r="L189" s="29"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="23"/>
+      <c r="L189" s="24"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="12"/>
-      <c r="B190" s="13"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="15"/>
-      <c r="J190" s="16"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="29"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="24"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="12"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="15"/>
-      <c r="J191" s="16"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="29"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="23"/>
+      <c r="L191" s="24"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="12"/>
-      <c r="B192" s="13"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="15"/>
-      <c r="J192" s="16"/>
-      <c r="K192" s="28"/>
-      <c r="L192" s="29"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="23"/>
+      <c r="L192" s="24"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
